--- a/Results/Correlation/Rank_Correlation_Team_Stats.xlsx
+++ b/Results/Correlation/Rank_Correlation_Team_Stats.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
@@ -6538,6 +6538,3222 @@
         <v>0.1764182424916574</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.1807881773399014</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1049261083743842</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.008231368186874199</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.05183537263626248</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.03893214682981094</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.01312569521690765</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2565072302558398</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.1230255839822024</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1230255839822024</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.117686318131257</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.09766407119021137</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.02024471635150171</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.2275862068965517</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.1639599555061179</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.03448275862068961</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.1657397107897665</v>
+      </c>
+      <c r="R98" t="n">
+        <v>-0.1430478309232481</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.642714126807564</v>
+      </c>
+      <c r="T98" t="n">
+        <v>-0.0260289210233593</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.1288097886540601</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.04679802955665024</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.2862068965517242</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.0763070077864294</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.2186874304783093</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.3526140155728588</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.4518353726362625</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.1141268075639599</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.02469410456062293</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.1977753058954395</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.4843159065628476</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.2436040044493882</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.08832035595105681</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.03448275862068972</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.2044493882091213</v>
+      </c>
+      <c r="P99" t="n">
+        <v>-0.1167964404894326</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.1114571746384873</v>
+      </c>
+      <c r="R99" t="n">
+        <v>-0.1305895439377085</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.2004449388209122</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.1381535038932147</v>
+      </c>
+      <c r="U99" t="n">
+        <v>-0.1559510567296996</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4753694581280788</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2748768472906404</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.2582869855394884</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2898776418242491</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3632925472747497</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.271635150166852</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2173526140155728</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.2044493882091213</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.1038932146829811</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.3979977753058954</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.3859844271412681</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4389321468298109</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6409343715239155</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.4709677419354839</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.2845383759733037</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.5199110122358176</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4780867630700779</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.418020022246941</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.5114571746384873</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.418020022246941</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FGA</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.09162561576354677</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.1315270935960591</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.06607341490545049</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.05895439377085654</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1403781979977753</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.1612903225806452</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.4055617352614016</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.3494994438264738</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.4780867630700778</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.06785317018909898</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.4002224694104561</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.2703003337041157</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1279199110122358</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.005561735261401579</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-0.2618464961067852</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-0.1795328142380423</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.1403781979977753</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-0.09010011123470529</v>
+      </c>
+      <c r="T101" t="n">
+        <v>-0.09499443826473852</v>
+      </c>
+      <c r="U101" t="n">
+        <v>-0.1038932146829812</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.59064039408867</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.5433497536945813</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4086763070077865</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3481646273637374</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.3815350389321468</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.675194660734149</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.7325917686318131</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.5991101223581757</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6458286985539488</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.6324805339265851</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.6222469410456062</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.7023359288097887</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.713904338153504</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.5030033370411569</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.6062291434927698</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.6471635150166852</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.5434927697441602</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.6266963292547274</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.6622914349276974</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.4972191323692993</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3P</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.2458128078817734</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.04532019704433499</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.435817575083426</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.2956618464961068</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.4117908787541713</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.4447163515016685</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.3931034482758621</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.4064516129032258</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.317908787541713</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.2382647385984427</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.4055617352614016</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.3414905450500556</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.5813125695216907</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.3899888765294772</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.3588431590656285</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.2823136818687431</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.4638487208008899</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.2698553948832035</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.367741935483871</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.2289210233592881</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3PA</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.196551724137931</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.02857142857142858</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.3979977753058954</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2956618464961068</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.3615127919911012</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.3717463848720801</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.2952169076751947</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.3695216907675195</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.2222469410456063</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.1119021134593994</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.3330367074527253</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.2409343715239155</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.499888765294772</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.2925472747497219</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.2111234705228031</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.3312569521690768</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.09944382647385985</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.1296996662958844</v>
+      </c>
+      <c r="U104" t="n">
+        <v>-0.03181312569521699</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3P%</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4044334975369458</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3315270935960591</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.4625139043381535</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2177975528364849</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2004449388209121</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.5314794215795329</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.450055617352614</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.5159065628476085</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.4091212458286986</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4812013348164628</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.4585094549499443</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4340378197997775</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.6800889877641825</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.4509454949944383</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.6053392658509456</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.4433815350389322</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.6169076751946607</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.4104560622914349</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.7837597330367074</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.6213570634037819</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.2773399014778325</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2147783251231528</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.08654060066740832</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.01134593993325916</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.03403781979977749</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0100111234705228</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.1194660734149056</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.09410456062291428</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.1586206896551725</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.2467185761957731</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.01446051167964402</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.0117908787541714</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.03937708565072306</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-0.1394883203559512</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.1839822024471636</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1136818687430479</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.1279199110122358</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.1292547274749722</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.1839822024471636</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2PA</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.1059113300492611</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.05960591133004933</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.3833147942157953</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.2943270300333705</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.2636262513904337</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.3072302558398221</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.3886540600667407</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.4936596218020022</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.5314794215795329</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.1773081201334816</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-0.3677419354838709</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-0.4505005561735262</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.4242491657397107</v>
+      </c>
+      <c r="O107" t="n">
+        <v>-0.3045606229143494</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-0.3624026696329254</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-0.1942157953281425</v>
+      </c>
+      <c r="R107" t="n">
+        <v>-0.2333704115684094</v>
+      </c>
+      <c r="S107" t="n">
+        <v>-0.1394883203559512</v>
+      </c>
+      <c r="T107" t="n">
+        <v>-0.1296996662958843</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-0.05050055617352611</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2P%</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6354679802955665</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5615763546798029</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5457174638487208</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.499888765294772</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.3997775305895439</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.6484983314794216</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.7948832035595106</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.6062291434927698</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.6934371523915461</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.5875417130144605</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.5804226918798665</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.6418242491657398</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7824249165739711</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.6120133481646274</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.6008898776418242</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.6418242491657398</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.5292547274749722</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.6035595105672971</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.5052280311457175</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.424694104560623</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.234975369458128</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1093596059113301</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.2818687430478309</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.07408231368186868</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.2355951056729699</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.03314794215795325</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.16440489432703</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.1541713014460512</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.3379310344827586</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.2556173526140155</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.07274749721913232</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.01668520578420463</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.1853170189098999</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.3308120133481647</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.07986651835372638</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.2218020022246942</v>
+      </c>
+      <c r="T109" t="n">
+        <v>-0.01535038932146837</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.1813125695216907</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>FTA</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1522167487684729</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.07093596059113305</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.278309232480534</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.07497219132369293</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.1902113459399333</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.07897664071190214</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.1159065628476085</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.3721913236929922</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.131924360400445</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.2146829810901001</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.3641824249165739</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.08743047830923245</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.1038932146829812</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.002002224694104604</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.1897664071190212</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.2387096774193549</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.03759733036707447</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.2484983314794216</v>
+      </c>
+      <c r="T110" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U110" t="n">
+        <v>-0.08965517241379306</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>FT%</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1443349753694582</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.212807881773399</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0803114571746385</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0140155728587319</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.03136818687430476</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.2662958843159066</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.1612903225806452</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.03581757508342598</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.3997775305895439</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.07853170189099001</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.05539488320355956</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.3312569521690768</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.3112347052280311</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.107452725250278</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-0.01846496106785311</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.3339265850945495</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.2458286985539488</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.1617352614015573</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.5443826473859844</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.3877641824249166</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.2359605911330049</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.1561576354679803</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.2444938820912124</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.1853170189098998</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.08164627363737487</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.09588431590656277</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.1181312569521691</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.2093437152391546</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.4037819799777531</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.0140155728587319</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.07185761957730818</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.3494994438264738</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.3339265850945494</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.1261401557285873</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-0.05717463848720805</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-0.03270300333704124</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.03715239154616246</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.2329254727474972</v>
+      </c>
+      <c r="T112" t="n">
+        <v>-0.01268075639599564</v>
+      </c>
+      <c r="U112" t="n">
+        <v>-0.003781979977752981</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DRB</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3645320197044335</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4039408866995073</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5906562847608454</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5586206896551724</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6965517241379311</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.3370411568409344</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5319243604004449</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.5337041156840934</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.5870967741935484</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.6418242491657398</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.4674082313681869</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.4585094549499443</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.3023359288097887</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.6422691879866518</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.1510567296996663</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.3632925472747497</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.5372636262513905</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.6169076751946607</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.3984427141268075</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.389098998887653</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TRB</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1236453201970443</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1674876847290641</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4487208008898776</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5136818687430478</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.546607341490545</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.1875417130144605</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.4451612903225807</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.3192436040044494</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.1733036707452725</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.457174638487208</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.2774193548387097</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.2476084538375973</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.06696329254727473</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.3979977753058954</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.05761957730812017</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.2516129032258064</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.4660734149054505</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.4549499443826474</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.3254727474972191</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.3815350389321468</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>AST</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4620689655172414</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1501668520578421</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3410456062291435</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.4251390433815351</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.4433815350389322</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.2369299221357063</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.3975528364849833</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.2747497219132369</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.2707452725250278</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.2938820912124583</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.4060066740823137</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.6952169076751946</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.2498331479421579</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.3383759733036708</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.09899888765294773</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.3766407119021135</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.1417130144605117</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.1288097886540601</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.3201334816462736</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2965517241379311</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.2147783251231528</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.04338153503893216</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.04516129032258065</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.06473859844271423</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.232035595105673</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.1532814238042269</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.02647385984427142</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.1359288097886541</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.1799777530589544</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.5283648498331479</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.1163515016685206</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.2520578420467185</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.08787541713014457</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.1666295884315907</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.3979977753058954</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.1216907675194661</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.01134593993325916</v>
+      </c>
+      <c r="T116" t="n">
+        <v>-0.1221357063403783</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.2676307007786429</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.01231527093596063</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.2566502463054188</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.3846496106785317</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3895439377085651</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.2698553948832035</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.2177975528364849</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.2667408231368187</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.3859844271412681</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.06206896551724139</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.2186874304783092</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.35706340378198</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.349944382647386</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.3232480533926585</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.1488320355951057</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.4496106785317019</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.2921023359288097</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.3770856507230256</v>
+      </c>
+      <c r="T117" t="n">
+        <v>-0.01357063403781988</v>
+      </c>
+      <c r="U117" t="n">
+        <v>-0.1515016685205783</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TOV</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.3251231527093597</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.452216748768473</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.4269187986651835</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.5225806451612902</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.5341490545050056</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.5256952169076752</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.3957730812013349</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.4015572858731924</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.421579532814238</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.2707452725250279</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.08209121245828699</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.1795328142380423</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.2556173526140155</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-0.3143492769744161</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-0.2035595105672969</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-0.2071190211345939</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.260956618464961</v>
+      </c>
+      <c r="S118" t="n">
+        <v>-0.3441601779755283</v>
+      </c>
+      <c r="T118" t="n">
+        <v>-0.3494994438264738</v>
+      </c>
+      <c r="U118" t="n">
+        <v>-0.3192436040044493</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.4068965517241379</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.3783251231527094</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.3543937708565073</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.6209121245828699</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.3641824249165739</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.1955506117908787</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.2173526140155728</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.2680756395995552</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.4932146829810902</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-0.2480533926585096</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-0.1555061179087875</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.2400444938820911</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.2947719688542825</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-0.2338153503893214</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-0.2071190211345939</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>-0.1145717463848721</v>
+      </c>
+      <c r="R119" t="n">
+        <v>-0.08787541713014457</v>
+      </c>
+      <c r="S119" t="n">
+        <v>-0.06963292547274746</v>
+      </c>
+      <c r="T119" t="n">
+        <v>-0.03759733036707447</v>
+      </c>
+      <c r="U119" t="n">
+        <v>-0.07319243604004444</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PTS</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5458128078817734</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2167487684729064</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5070077864293659</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.2253615127919911</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2987764182424917</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4131256952169077</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.2996662958843159</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4727474972191323</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3156840934371524</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4416017797552837</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.5657397107897664</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.5150166852057843</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6969966629588431</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.6342602892102336</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.4295884315906563</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.642714126807564</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.5586206896551724</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.642714126807564</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.5056729699666296</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9970443349753695</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9881773399014778</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9973303670745273</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9977753058954394</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9982202447163515</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9875417130144605</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9942157953281424</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9973303670745273</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.9942157953281424</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.9995550611790879</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.9968854282536151</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.9906562847608453</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.996440489432703</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.992880978865406</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.9982202447163515</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.9937708565072303</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.9973303670745273</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.9973303670745273</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.9955506117908788</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0.9937708565072303</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.9945812807881773</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.98128078817734</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.9942157953281423</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.9959955506117908</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.9977753058954393</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.9884315906562848</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.9933259176863181</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.9937708565072303</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.9946607341490545</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.9959955506117908</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-0.9951056729699665</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-0.9906562847608453</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.9897664071190211</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-0.9959955506117908</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-0.9942157953281423</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>-0.9946607341490545</v>
+      </c>
+      <c r="R122" t="n">
+        <v>-0.9955506117908788</v>
+      </c>
+      <c r="S122" t="n">
+        <v>-0.9741935483870967</v>
+      </c>
+      <c r="T122" t="n">
+        <v>-0.992880978865406</v>
+      </c>
+      <c r="U122" t="n">
+        <v>-0.9897664071190211</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PW</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.964039408866995</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9729064039408867</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9608453837597331</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.9345939933259176</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9537263626251391</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9701890989988876</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.985761957730812</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9457174638487208</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9670745272525028</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9279199110122358</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.978642936596218</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.9604004449388209</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.9577308120133482</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.9706340378197997</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.9314794215795328</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.9341490545050055</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.9710789766407119</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.9470522803114572</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.946607341490545</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.9283648498331479</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.9551724137931035</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.9684729064039408</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.9604004449388208</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.932369299221357</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.9488320355951056</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.9652947719688543</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.9786429365962179</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.9492769744160179</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.9617352614015573</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-0.9221357063403781</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-0.9786429365962179</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.9559510567296996</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.9586206896551723</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-0.9626251390433815</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-0.9350389321468298</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>-0.9345939933259177</v>
+      </c>
+      <c r="R124" t="n">
+        <v>-0.9657397107897665</v>
+      </c>
+      <c r="S124" t="n">
+        <v>-0.9239154616240266</v>
+      </c>
+      <c r="T124" t="n">
+        <v>-0.9563959955506118</v>
+      </c>
+      <c r="U124" t="n">
+        <v>-0.9403781979977752</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MOV</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9556650246305418</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9699507389162562</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.9626251390433815</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.9350389321468298</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9532814238042269</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9657397107897664</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9795328142380423</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9488320355951056</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.9670745272525028</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9305895439377085</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.9755283648498332</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.9528364849833147</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.9630700778642937</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.9626251390433815</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.9363737486095662</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.9377085650723026</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.9728587319243605</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.9474972191323693</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.9461624026696329</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.9372636262513905</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.2384236453201971</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.1921182266009853</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.3201334816462735</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.54972191323693</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.3228031145717465</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.3681868743047831</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.7388209121245828</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.6226918798665184</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.4060066740823136</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.1715239154616239</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-0.2983314794215794</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.1595105672969968</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.2716351501668521</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-0.8705228031145718</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-0.4674082313681869</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>-0.7130144605116797</v>
+      </c>
+      <c r="R126" t="n">
+        <v>-0.4723025583982203</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-0.1470522803114571</v>
+      </c>
+      <c r="T126" t="n">
+        <v>-0.8286985539488321</v>
+      </c>
+      <c r="U126" t="n">
+        <v>-0.8456062291434927</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SRS</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.948768472906404</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9492610837438423</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9528364849833147</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9399332591768632</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9443826473859844</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9630700778642937</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.982202447163515</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9470522803114572</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.9612903225806452</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.9234705228031146</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.9684093437152391</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.9439377085650723</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.9430478309232481</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.9617352614015573</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.935483870967742</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.9319243604004449</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.9701890989988876</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.9377085650723026</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.9515016685205784</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.9381535038932147</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ORtg</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7270935960591133</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5137931034482759</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6400444938820913</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5479421579532815</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.5555061179087876</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8269187986651836</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.7922135706340379</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.7637374860956618</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.7303670745272526</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.7334816462736373</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.7228031145717464</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.7161290322580645</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.7984427141268076</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.7953281423804227</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.7583982202447164</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.8006674082313682</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.8206896551724138</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.7374860956618465</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.7815350389321468</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.7890989988876529</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DRtg</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.602463054187192</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.6310344827586207</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.6347052280311458</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.6547274749721914</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.7352614015572858</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.8553948832035596</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.8798665183537264</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.6760845383759733</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.7810901001112347</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.7374860956618465</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-0.7432703003337042</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.7864293659621802</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.6622914349276974</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.8469410456062292</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-0.6013348164627363</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>-0.642714126807564</v>
+      </c>
+      <c r="R129" t="n">
+        <v>-0.713904338153504</v>
+      </c>
+      <c r="S129" t="n">
+        <v>-0.8362625139043383</v>
+      </c>
+      <c r="T129" t="n">
+        <v>-0.5510567296996662</v>
+      </c>
+      <c r="U129" t="n">
+        <v>-0.767741935483871</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NRtg</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9605911330049262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9704433497536946</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9608453837597331</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9341490545050055</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9537263626251391</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9701890989988876</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9804226918798665</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9479421579532814</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.967964404894327</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9274749721913237</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.978642936596218</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.9555061179087876</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.9652947719688543</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.9621802002224694</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.9394883203559511</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.9372636262513905</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.9741935483870968</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0.9506117908787541</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.9474972191323693</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.9372636262513905</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.04334975369458127</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.1128078817733991</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.08654060066740821</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.08209121245828688</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.096329254727475</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.253837597330367</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.288987764182425</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.1724137931034482</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.2987764182424917</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.07719688542825365</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.02691879866518354</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.01357063403781988</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.09454949944382651</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.09810901001112349</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-0.1759733036707454</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>-0.005116796440489457</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.03092324805339264</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.0803114571746385</v>
+      </c>
+      <c r="T131" t="n">
+        <v>-0.3205784204671858</v>
+      </c>
+      <c r="U131" t="n">
+        <v>-0.2716351501668521</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>FTr</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1586206896551724</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.05615763546798025</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.2832035595105673</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.004226918798665213</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.1884315906562848</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.1150166852057842</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.1328142380422692</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.4117908787541713</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.3094549499443826</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.2231368186874305</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.3374860956618465</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.1265850945494994</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-0.1110122358175751</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.0500556173526141</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.2476084538375973</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.2458286985539488</v>
+      </c>
+      <c r="R132" t="n">
+        <v>-0.1012235817575085</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0.3067853170189099</v>
+      </c>
+      <c r="T132" t="n">
+        <v>-0.2004449388209122</v>
+      </c>
+      <c r="U132" t="n">
+        <v>-0.0260289210233593</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3PAr</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.2172413793103448</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.02068965517241383</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3975528364849833</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3041156840934371</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.3508342602892103</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.3686318131256953</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.3846496106785317</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.4024471635150166</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.3196885428253615</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.1457174638487208</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.3690767519466074</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.3245828698553949</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.4847608453837597</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.317908787541713</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.246273637374861</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.1813125695216907</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.2965517241379311</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.110567296996663</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.1110122358175751</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0.01045606229143492</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TS%</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.6482758620689655</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5669950738916256</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6369299221357063</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.460734149054505</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.3931034482758621</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.6725250278086763</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.746384872080089</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.7045606229143493</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.7588431590656285</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.6542825361512792</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.6916573971078976</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.72146829810901</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.8149054505005562</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.7032258064516129</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.6809788654060067</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.728587319243604</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.7308120133481646</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.728587319243604</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.8162402669632925</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.6587319243604004</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Off_eFG%</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.6004926108374384</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5541871921182266</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6173526140155728</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.503448275862069</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.4754171301446051</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.6676307007786429</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.6614015572858731</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.7063403781979978</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.6351501668520578</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.6231368186874304</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.6872080088987764</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.7948832035595106</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.7121245828698555</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.6413793103448275</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.714349276974416</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.7459399332591768</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.7468298109010011</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.7503893214682982</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.6222469410456062</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Off_TOV%</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.4098522167487684</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.373399014778325</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.3632925472747497</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.3979977753058954</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.5897664071190212</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.5354838709677419</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.3201334816462735</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.3308120133481647</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.2720800889877641</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.1541713014460511</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.1345939933259177</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-0.07719688542825365</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-0.2244716351501668</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.3588431590656285</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-0.1523915461624026</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>-0.2177975528364851</v>
+      </c>
+      <c r="R136" t="n">
+        <v>-0.3005561735261402</v>
+      </c>
+      <c r="S136" t="n">
+        <v>-0.3681868743047831</v>
+      </c>
+      <c r="T136" t="n">
+        <v>-0.2992213570634037</v>
+      </c>
+      <c r="U136" t="n">
+        <v>-0.318353726362625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Off_ORB%</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.09064039408866997</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.09852216748768483</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.2369299221357064</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.06829810901001121</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.04471635150166842</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.1968854282536151</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.0402669632925472</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.2458286985539488</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.1946607341490545</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.1145717463848721</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.1056729699666297</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.1888765294771968</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.00111234705228036</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.04338153503893216</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.175083426028921</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.1577308120133482</v>
+      </c>
+      <c r="S137" t="n">
+        <v>-0.1399332591768632</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.2671857619577308</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.2315906562847608</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Off_FT/FGA</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2187192118226601</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1389162561576355</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.268075639599555</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.04382647385984417</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.2311457174638487</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.2266963292547275</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.1154616240266964</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.4629588431590657</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4135706340378198</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.196440489432703</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.4100111234705228</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.2778642936596218</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.06073414905450503</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0380422691879867</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.2182424916573971</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.2703003337041157</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.260511679644049</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.07363737486095667</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.1510567296996663</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Def_eFG%</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.4852216748768472</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.4931034482758621</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.6618464961067854</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.6088987764182425</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.7285873192436041</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.7450500556173527</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.8865406006674081</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.7081201334816463</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.7490545050055617</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.6329254727474971</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.7112347052280312</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-0.7232480533926584</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-0.6315906562847609</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.7775305895439377</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-0.6008898776418243</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>-0.5830923248053392</v>
+      </c>
+      <c r="R139" t="n">
+        <v>-0.7508342602892102</v>
+      </c>
+      <c r="S139" t="n">
+        <v>-0.8798665183537264</v>
+      </c>
+      <c r="T139" t="n">
+        <v>-0.6938820912124584</v>
+      </c>
+      <c r="U139" t="n">
+        <v>-0.5679644048943271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Def_TOV%</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.3157635467980295</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.3182266009852217</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.006006674082313701</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.09187986651835378</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.01490545050055614</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.1550611790878754</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.1256952169076752</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.08298109010011134</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.05494994438264733</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.1412680756395995</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.2694104560622914</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.1385984427141268</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.1403781979977753</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.0002224694104561165</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.192880978865406</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.1363737486095662</v>
+      </c>
+      <c r="R140" t="n">
+        <v>-0.1096774193548387</v>
+      </c>
+      <c r="S140" t="n">
+        <v>-0.04872080088987762</v>
+      </c>
+      <c r="T140" t="n">
+        <v>-0.1968854282536152</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0.2774193548387097</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Def_DRB%</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4812807881773399</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1728587319243604</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.3757508342602892</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.4749721913236929</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.424694104560623</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.4949944382647385</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.4807563959955506</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.460734149054505</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.5159065628476085</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.296106785317019</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.2996662958843159</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.02291434927697444</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.2889877641824249</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-0.03893214682981094</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.2253615127919911</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.4442714126807564</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.3259176863181312</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.4700778642936596</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0.5038932146829811</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Def_FT/FGA</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.4014778325123152</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.2369458128078819</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.3023359288097887</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.4807563959955505</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.2302558398220245</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.2582869855394883</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.2845383759733038</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.2694104560622914</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.5937708565072302</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.3272525027808677</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.189766407119021</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-0.3303670745272524</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-0.3490545050055618</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-0.2222469410456063</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-0.2498331479421581</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>-0.189321468298109</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-0.1635150166852057</v>
+      </c>
+      <c r="S142" t="n">
+        <v>-0.2040044493882092</v>
+      </c>
+      <c r="T142" t="n">
+        <v>-0.09810901001112349</v>
+      </c>
+      <c r="U142" t="n">
+        <v>-0.1479421579532814</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Arena</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.01773399014778332</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.126600985221675</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.05717463848720805</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.1853170189098998</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01802002224694099</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.2057842046718577</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.03448275862068961</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.2151279199110123</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.2809788654060066</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.3103448275862069</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-0.3686318131256952</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-0.2725250278086764</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-0.1136818687430479</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.3454949944382648</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-0.03314794215795325</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.1292547274749722</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.01979977753058959</v>
+      </c>
+      <c r="S143" t="n">
+        <v>-0.02558398220244706</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.07675194660734153</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0.07764182424916577</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Attend.</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4349753694581281</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4923248053392658</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5595105672969967</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.7294771968854283</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.3708565072302559</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.4491657397107898</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.5639599555061179</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4478309232480534</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.4567296996662958</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.5056729699666296</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.5452725250278087</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.4611790878754172</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.5216907675194661</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.2836484983314794</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.3846496106785317</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.2453837597330367</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.2529477196885428</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.1764182424916574</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.4718576195773081</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Attend./G</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4349753694581281</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.2004926108374384</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4923248053392658</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5604004449388209</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.7294771968854283</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.3708565072302559</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.4491657397107898</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.5639599555061179</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.4478309232480534</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.4567296996662958</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.4945494994438264</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.5452725250278087</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.4727474972191323</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.5216907675194661</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.2836484983314794</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.3913236929922136</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.2409343715239155</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0.5310344827586206</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.1764182424916574</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0.4718576195773081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>
